--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H2">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I2">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J2">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.63214269608029</v>
+        <v>73.38084166666667</v>
       </c>
       <c r="N2">
-        <v>68.63214269608029</v>
+        <v>220.142525</v>
       </c>
       <c r="O2">
-        <v>0.9918129814888451</v>
+        <v>0.9881925120129115</v>
       </c>
       <c r="P2">
-        <v>0.9918129814888451</v>
+        <v>0.9905403402623177</v>
       </c>
       <c r="Q2">
-        <v>1258.839770350688</v>
+        <v>1484.123437841481</v>
       </c>
       <c r="R2">
-        <v>1258.839770350688</v>
+        <v>13357.11094057333</v>
       </c>
       <c r="S2">
-        <v>0.944103096903991</v>
+        <v>0.9428543556160672</v>
       </c>
       <c r="T2">
-        <v>0.944103096903991</v>
+        <v>0.9591518878050997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H3">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I3">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J3">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0546009680501207</v>
+        <v>0.1599326666666667</v>
       </c>
       <c r="N3">
-        <v>0.0546009680501207</v>
+        <v>0.479798</v>
       </c>
       <c r="O3">
-        <v>0.0007890464552997296</v>
+        <v>0.002153753759655346</v>
       </c>
       <c r="P3">
-        <v>0.0007890464552997296</v>
+        <v>0.00215887082324135</v>
       </c>
       <c r="Q3">
-        <v>1.001482211993721</v>
+        <v>3.23462928041489</v>
       </c>
       <c r="R3">
-        <v>1.001482211993721</v>
+        <v>29.111663523734</v>
       </c>
       <c r="S3">
-        <v>0.000751090393000638</v>
+        <v>0.002054939790101335</v>
       </c>
       <c r="T3">
-        <v>0.000751090393000638</v>
+        <v>0.002090460066564201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H4">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I4">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J4">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.511929852981832</v>
+        <v>0.156083</v>
       </c>
       <c r="N4">
-        <v>0.511929852981832</v>
+        <v>0.468249</v>
       </c>
       <c r="O4">
-        <v>0.007397972055855031</v>
+        <v>0.002101911729946469</v>
       </c>
       <c r="P4">
-        <v>0.007397972055855031</v>
+        <v>0.002106905623016226</v>
       </c>
       <c r="Q4">
-        <v>9.389735381234367</v>
+        <v>3.156769986379667</v>
       </c>
       <c r="R4">
-        <v>9.389735381234367</v>
+        <v>28.410929877417</v>
       </c>
       <c r="S4">
-        <v>0.007042102149396471</v>
+        <v>0.002005476266627122</v>
       </c>
       <c r="T4">
-        <v>0.007042102149396471</v>
+        <v>0.002040141550628849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.926897777906496</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H5">
-        <v>0.926897777906496</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I5">
-        <v>0.04810371055361184</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J5">
-        <v>0.04810371055361184</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>68.63214269608029</v>
+        <v>0.032753</v>
       </c>
       <c r="N5">
-        <v>68.63214269608029</v>
+        <v>0.098259</v>
       </c>
       <c r="O5">
-        <v>0.9918129814888451</v>
+        <v>0.0004410724735617376</v>
       </c>
       <c r="P5">
-        <v>0.9918129814888451</v>
+        <v>0.0004421204094657999</v>
       </c>
       <c r="Q5">
-        <v>63.61498055795837</v>
+        <v>0.6624276017496668</v>
       </c>
       <c r="R5">
-        <v>63.61498055795837</v>
+        <v>5.961848415747</v>
       </c>
       <c r="S5">
-        <v>0.04770988458485418</v>
+        <v>0.0004208361202747136</v>
       </c>
       <c r="T5">
-        <v>0.04770988458485418</v>
+        <v>0.0004281104041295125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.926897777906496</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H6">
-        <v>0.926897777906496</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I6">
-        <v>0.04810371055361184</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J6">
-        <v>0.04810371055361184</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0546009680501207</v>
+        <v>0.5280275000000001</v>
       </c>
       <c r="N6">
-        <v>0.0546009680501207</v>
+        <v>1.056055</v>
       </c>
       <c r="O6">
-        <v>0.0007890464552997296</v>
+        <v>0.007110750023925151</v>
       </c>
       <c r="P6">
-        <v>0.0007890464552997296</v>
+        <v>0.004751762881958959</v>
       </c>
       <c r="Q6">
-        <v>0.05060951595720046</v>
+        <v>10.67932679396917</v>
       </c>
       <c r="R6">
-        <v>0.05060951595720046</v>
+        <v>64.07596076381502</v>
       </c>
       <c r="S6">
-        <v>3.795606229909161E-05</v>
+        <v>0.006784509647920996</v>
       </c>
       <c r="T6">
-        <v>3.795606229909161E-05</v>
+        <v>0.00460118801161209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.040521</v>
+      </c>
+      <c r="H7">
+        <v>0.121563</v>
+      </c>
+      <c r="I7">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J7">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>73.38084166666667</v>
+      </c>
+      <c r="N7">
+        <v>220.142525</v>
+      </c>
+      <c r="O7">
+        <v>0.9881925120129115</v>
+      </c>
+      <c r="P7">
+        <v>0.9905403402623177</v>
+      </c>
+      <c r="Q7">
+        <v>2.973465085175</v>
+      </c>
+      <c r="R7">
+        <v>26.761185766575</v>
+      </c>
+      <c r="S7">
+        <v>0.001889023807148443</v>
+      </c>
+      <c r="T7">
+        <v>0.001921676173995425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.040521</v>
+      </c>
+      <c r="H8">
+        <v>0.121563</v>
+      </c>
+      <c r="I8">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J8">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1599326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.479798</v>
+      </c>
+      <c r="O8">
+        <v>0.002153753759655346</v>
+      </c>
+      <c r="P8">
+        <v>0.00215887082324135</v>
+      </c>
+      <c r="Q8">
+        <v>0.006480631586</v>
+      </c>
+      <c r="R8">
+        <v>0.058325684274</v>
+      </c>
+      <c r="S8">
+        <v>4.117104792098703E-06</v>
+      </c>
+      <c r="T8">
+        <v>4.188270235070016E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.040521</v>
+      </c>
+      <c r="H9">
+        <v>0.121563</v>
+      </c>
+      <c r="I9">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J9">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.156083</v>
+      </c>
+      <c r="N9">
+        <v>0.468249</v>
+      </c>
+      <c r="O9">
+        <v>0.002101911729946469</v>
+      </c>
+      <c r="P9">
+        <v>0.002106905623016226</v>
+      </c>
+      <c r="Q9">
+        <v>0.006324639243</v>
+      </c>
+      <c r="R9">
+        <v>0.056921753187</v>
+      </c>
+      <c r="S9">
+        <v>4.01800383035241E-06</v>
+      </c>
+      <c r="T9">
+        <v>4.087456282229813E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.040521</v>
+      </c>
+      <c r="H10">
+        <v>0.121563</v>
+      </c>
+      <c r="I10">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J10">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.032753</v>
+      </c>
+      <c r="N10">
+        <v>0.098259</v>
+      </c>
+      <c r="O10">
+        <v>0.0004410724735617376</v>
+      </c>
+      <c r="P10">
+        <v>0.0004421204094657999</v>
+      </c>
+      <c r="Q10">
+        <v>0.001327184313</v>
+      </c>
+      <c r="R10">
+        <v>0.011944658817</v>
+      </c>
+      <c r="S10">
+        <v>8.431519092760421E-07</v>
+      </c>
+      <c r="T10">
+        <v>8.577260535219919E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.040521</v>
+      </c>
+      <c r="H11">
+        <v>0.121563</v>
+      </c>
+      <c r="I11">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J11">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5280275000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.056055</v>
+      </c>
+      <c r="O11">
+        <v>0.007110750023925151</v>
+      </c>
+      <c r="P11">
+        <v>0.004751762881958959</v>
+      </c>
+      <c r="Q11">
+        <v>0.02139620232750001</v>
+      </c>
+      <c r="R11">
+        <v>0.128377213965</v>
+      </c>
+      <c r="S11">
+        <v>1.359287377569247E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.21855389788383E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.864034</v>
+      </c>
+      <c r="I12">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J12">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>73.38084166666667</v>
+      </c>
+      <c r="N12">
+        <v>220.142525</v>
+      </c>
+      <c r="O12">
+        <v>0.9881925120129115</v>
+      </c>
+      <c r="P12">
+        <v>0.9905403402623177</v>
+      </c>
+      <c r="Q12">
+        <v>68.39219190764167</v>
+      </c>
+      <c r="R12">
+        <v>410.3531514458501</v>
+      </c>
+      <c r="S12">
+        <v>0.04344913258969597</v>
+      </c>
+      <c r="T12">
+        <v>0.02946677628322259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.864034</v>
+      </c>
+      <c r="I13">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J13">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1599326666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.479798</v>
+      </c>
+      <c r="O13">
+        <v>0.002153753759655346</v>
+      </c>
+      <c r="P13">
+        <v>0.00215887082324135</v>
+      </c>
+      <c r="Q13">
+        <v>0.1490599641886667</v>
+      </c>
+      <c r="R13">
+        <v>0.8943597851320001</v>
+      </c>
+      <c r="S13">
+        <v>9.469686476191253E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.422248644207943E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.926897777906496</v>
-      </c>
-      <c r="H7">
-        <v>0.926897777906496</v>
-      </c>
-      <c r="I7">
-        <v>0.04810371055361184</v>
-      </c>
-      <c r="J7">
-        <v>0.04810371055361184</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.511929852981832</v>
-      </c>
-      <c r="N7">
-        <v>0.511929852981832</v>
-      </c>
-      <c r="O7">
-        <v>0.007397972055855031</v>
-      </c>
-      <c r="P7">
-        <v>0.007397972055855031</v>
-      </c>
-      <c r="Q7">
-        <v>0.4745066431728593</v>
-      </c>
-      <c r="R7">
-        <v>0.4745066431728593</v>
-      </c>
-      <c r="S7">
-        <v>0.0003558699064585591</v>
-      </c>
-      <c r="T7">
-        <v>0.0003558699064585591</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.864034</v>
+      </c>
+      <c r="I14">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J14">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.156083</v>
+      </c>
+      <c r="N14">
+        <v>0.468249</v>
+      </c>
+      <c r="O14">
+        <v>0.002101911729946469</v>
+      </c>
+      <c r="P14">
+        <v>0.002106905623016226</v>
+      </c>
+      <c r="Q14">
+        <v>0.145472009411</v>
+      </c>
+      <c r="R14">
+        <v>0.8728320564660002</v>
+      </c>
+      <c r="S14">
+        <v>9.24174594889949E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.267661610514686E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.864034</v>
+      </c>
+      <c r="I15">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J15">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.032753</v>
+      </c>
+      <c r="N15">
+        <v>0.098259</v>
+      </c>
+      <c r="O15">
+        <v>0.0004410724735617376</v>
+      </c>
+      <c r="P15">
+        <v>0.0004421204094657999</v>
+      </c>
+      <c r="Q15">
+        <v>0.030526352801</v>
+      </c>
+      <c r="R15">
+        <v>0.183158116806</v>
+      </c>
+      <c r="S15">
+        <v>1.939320137774806E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.315227928276542E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.864034</v>
+      </c>
+      <c r="I16">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J16">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5280275000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.056055</v>
+      </c>
+      <c r="O16">
+        <v>0.007110750023925151</v>
+      </c>
+      <c r="P16">
+        <v>0.004751762881958959</v>
+      </c>
+      <c r="Q16">
+        <v>0.4921306064675001</v>
+      </c>
+      <c r="R16">
+        <v>1.96852242587</v>
+      </c>
+      <c r="S16">
+        <v>0.0003126475022284635</v>
+      </c>
+      <c r="T16">
+        <v>0.0001413563164489852</v>
       </c>
     </row>
   </sheetData>
